--- a/ExcelOutput.xlsx
+++ b/ExcelOutput.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t xml:space="preserve">
 Results for Naranja:
@@ -86,6 +86,33 @@
   </si>
   <si>
     <t>Link #7: https://www.muyinteresante.es/salud/fotos/beneficios-de-comer-peras</t>
+  </si>
+  <si>
+    <t>Link #2: https://infoalimentos.org.ar/temas/nutricion-y-estilos-de-vida/526-la-banana-tiene-su-dia</t>
+  </si>
+  <si>
+    <t>Link #3: https://www.clarin.com/buena-vida/bananas-cuantas-calorias-beneficios-n0t4l0n4t41l_0_PXTfqODYm.html</t>
+  </si>
+  <si>
+    <t>Link #4: https://elgourmet.com/glosario/banana</t>
+  </si>
+  <si>
+    <t>Link #5: https://www.disco.com.ar/banana-5/p</t>
+  </si>
+  <si>
+    <t>Link #4: https://www.mentta.com/blog/10-tipos-de-pera-que-debes-conocer/</t>
+  </si>
+  <si>
+    <t>Link #5: https://www.cuerpomente.com/guia-alimentos/pera</t>
+  </si>
+  <si>
+    <t>Link #6: https://www.cocinafacil.com.mx/salud-y-nutricion/propiedades-de-la-pera-salud-belleza/</t>
+  </si>
+  <si>
+    <t>Link #4: https://www.disco.com.ar/banana-5/p</t>
+  </si>
+  <si>
+    <t>Link #5: https://elgourmet.com/glosario/banana</t>
   </si>
 </sst>
 </file>
@@ -130,7 +157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -180,6 +207,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -187,7 +246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -195,8 +254,8 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.296875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="41.87890625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.109375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="44.4375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="89.28125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="105.0625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="105.0625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="98.64453125"/>
   </cols>
@@ -279,6 +338,106 @@
       </c>
       <c r="F4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -288,7 +447,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -300,7 +459,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="71.49609375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="88.8046875"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="70.9453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="73.21484375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="88.8046875"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="73.21484375"/>
   </cols>
   <sheetData>
@@ -406,6 +565,75 @@
       </c>
       <c r="H4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -415,7 +643,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -470,6 +698,61 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
